--- a/data/pca/factorExposure/factorExposure_2011-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02094499505311506</v>
+        <v>0.01686788826712893</v>
       </c>
       <c r="C2">
-        <v>-0.01436171621326045</v>
+        <v>0.007495146432137353</v>
       </c>
       <c r="D2">
-        <v>0.04309009619346737</v>
+        <v>-0.03122692890642905</v>
       </c>
       <c r="E2">
-        <v>-0.06932902216495111</v>
+        <v>-0.04119303770530144</v>
       </c>
       <c r="F2">
-        <v>-0.0007598640819640142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02333034046280828</v>
+      </c>
+      <c r="G2">
+        <v>-0.006801758921725713</v>
+      </c>
+      <c r="H2">
+        <v>0.01878142047176662</v>
+      </c>
+      <c r="I2">
+        <v>0.01584262336021549</v>
+      </c>
+      <c r="J2">
+        <v>-0.04774528167690997</v>
+      </c>
+      <c r="K2">
+        <v>-0.05823263844998058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.07734845427034973</v>
+        <v>0.09337208619757352</v>
       </c>
       <c r="C4">
-        <v>-0.04461085340930308</v>
+        <v>0.04970295298392862</v>
       </c>
       <c r="D4">
-        <v>0.0511849958242724</v>
+        <v>-0.03310731393674998</v>
       </c>
       <c r="E4">
-        <v>-0.01333308242740276</v>
+        <v>-0.02847422028579125</v>
       </c>
       <c r="F4">
-        <v>-0.02093883403506235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07454913003228274</v>
+      </c>
+      <c r="G4">
+        <v>-0.03551888433412581</v>
+      </c>
+      <c r="H4">
+        <v>0.01351278057914472</v>
+      </c>
+      <c r="I4">
+        <v>-0.08140739337986634</v>
+      </c>
+      <c r="J4">
+        <v>0.0139942060416998</v>
+      </c>
+      <c r="K4">
+        <v>0.04641476124042425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1247847359445247</v>
+        <v>0.1325304364939825</v>
       </c>
       <c r="C6">
-        <v>-0.005638551092440575</v>
+        <v>0.01442434324122808</v>
       </c>
       <c r="D6">
-        <v>0.05652519560558059</v>
+        <v>-0.06150052814602025</v>
       </c>
       <c r="E6">
-        <v>-0.06533685546612217</v>
+        <v>-0.01349142247006522</v>
       </c>
       <c r="F6">
-        <v>-0.04872308716969469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04730265496987384</v>
+      </c>
+      <c r="G6">
+        <v>-0.07997560082528914</v>
+      </c>
+      <c r="H6">
+        <v>-0.1682405042221434</v>
+      </c>
+      <c r="I6">
+        <v>-0.1230500697792295</v>
+      </c>
+      <c r="J6">
+        <v>0.4359571907816723</v>
+      </c>
+      <c r="K6">
+        <v>-0.04016075338459704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07220305803436393</v>
+        <v>0.07124403957842131</v>
       </c>
       <c r="C7">
-        <v>-0.01481152423823409</v>
+        <v>0.05148824362516648</v>
       </c>
       <c r="D7">
-        <v>0.06065797428940504</v>
+        <v>-0.05072795434258825</v>
       </c>
       <c r="E7">
-        <v>-0.05385308076628106</v>
+        <v>-0.0287395149336668</v>
       </c>
       <c r="F7">
-        <v>0.009215921671339829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03528099874607529</v>
+      </c>
+      <c r="G7">
+        <v>0.01482937397571178</v>
+      </c>
+      <c r="H7">
+        <v>-0.0003827837580727776</v>
+      </c>
+      <c r="I7">
+        <v>-0.02839315917241212</v>
+      </c>
+      <c r="J7">
+        <v>-0.0596084911646231</v>
+      </c>
+      <c r="K7">
+        <v>0.0793085194230877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03649086570293197</v>
+        <v>0.04025587239031632</v>
       </c>
       <c r="C8">
-        <v>-0.04590311514987511</v>
+        <v>0.02043567791939165</v>
       </c>
       <c r="D8">
-        <v>-0.008839346479884614</v>
+        <v>0.004272700768724312</v>
       </c>
       <c r="E8">
-        <v>-0.06034362904550228</v>
+        <v>-0.06815275698700203</v>
       </c>
       <c r="F8">
-        <v>-0.0429118090812274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03162345717589279</v>
+      </c>
+      <c r="G8">
+        <v>-0.05770005369092192</v>
+      </c>
+      <c r="H8">
+        <v>-0.008861543525498903</v>
+      </c>
+      <c r="I8">
+        <v>-0.1059630692081409</v>
+      </c>
+      <c r="J8">
+        <v>-0.008929118665528243</v>
+      </c>
+      <c r="K8">
+        <v>0.03645219756058084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07792895486230654</v>
+        <v>0.08562843138326728</v>
       </c>
       <c r="C9">
-        <v>-0.05718316011254748</v>
+        <v>0.05320845312914797</v>
       </c>
       <c r="D9">
-        <v>0.0462926580207145</v>
+        <v>-0.03107496517673971</v>
       </c>
       <c r="E9">
-        <v>-0.01820626012030184</v>
+        <v>-0.02144126286905951</v>
       </c>
       <c r="F9">
-        <v>-0.0159225900158848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06072872316392813</v>
+      </c>
+      <c r="G9">
+        <v>-0.0434204262086887</v>
+      </c>
+      <c r="H9">
+        <v>0.01494031892709666</v>
+      </c>
+      <c r="I9">
+        <v>-0.08995585040983005</v>
+      </c>
+      <c r="J9">
+        <v>0.002687868445490625</v>
+      </c>
+      <c r="K9">
+        <v>0.02483620233168818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.0199430019752549</v>
+        <v>0.07291688589466841</v>
       </c>
       <c r="C10">
-        <v>0.1596523820635902</v>
+        <v>-0.1932567492934088</v>
       </c>
       <c r="D10">
-        <v>-0.003455374498404305</v>
+        <v>-0.01359594650812234</v>
       </c>
       <c r="E10">
-        <v>-0.07620701170099578</v>
+        <v>-0.04833867278796749</v>
       </c>
       <c r="F10">
-        <v>-0.041512652353424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03310083603407207</v>
+      </c>
+      <c r="G10">
+        <v>0.05072502525125925</v>
+      </c>
+      <c r="H10">
+        <v>-0.02883222831021293</v>
+      </c>
+      <c r="I10">
+        <v>0.03691547890124711</v>
+      </c>
+      <c r="J10">
+        <v>-0.01392334371761945</v>
+      </c>
+      <c r="K10">
+        <v>-0.01118863605928988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07176411520988432</v>
+        <v>0.07362557917938464</v>
       </c>
       <c r="C11">
-        <v>-0.06321133704097026</v>
+        <v>0.06058042530101609</v>
       </c>
       <c r="D11">
-        <v>0.03791641989029331</v>
+        <v>-0.0327696029005223</v>
       </c>
       <c r="E11">
-        <v>-0.03406670407463955</v>
+        <v>-0.01792182735199991</v>
       </c>
       <c r="F11">
-        <v>0.01101667091912278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02422763407097254</v>
+      </c>
+      <c r="G11">
+        <v>-0.06137414599762846</v>
+      </c>
+      <c r="H11">
+        <v>0.02957683246673425</v>
+      </c>
+      <c r="I11">
+        <v>-0.05490540530095542</v>
+      </c>
+      <c r="J11">
+        <v>-0.07710270451239731</v>
+      </c>
+      <c r="K11">
+        <v>-0.03996151193684561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07023735264457558</v>
+        <v>0.07266939486774246</v>
       </c>
       <c r="C12">
-        <v>-0.04810107810718177</v>
+        <v>0.05100594694028345</v>
       </c>
       <c r="D12">
-        <v>0.0462146345229382</v>
+        <v>-0.02420820780918267</v>
       </c>
       <c r="E12">
-        <v>-0.02696761197156733</v>
+        <v>-0.0143078347881922</v>
       </c>
       <c r="F12">
-        <v>0.001346375395524084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03916728984786145</v>
+      </c>
+      <c r="G12">
+        <v>-0.04674729912368692</v>
+      </c>
+      <c r="H12">
+        <v>0.008263928064803543</v>
+      </c>
+      <c r="I12">
+        <v>-0.07535983173327122</v>
+      </c>
+      <c r="J12">
+        <v>-0.0797534684976501</v>
+      </c>
+      <c r="K12">
+        <v>-0.01545813586164783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.07862323827918412</v>
+        <v>0.06750665013647354</v>
       </c>
       <c r="C13">
-        <v>-0.02766798892070636</v>
+        <v>0.03561256715722036</v>
       </c>
       <c r="D13">
-        <v>0.0241125775647851</v>
+        <v>0.01404051171267833</v>
       </c>
       <c r="E13">
-        <v>-0.02204797477763494</v>
+        <v>-0.0282720924189585</v>
       </c>
       <c r="F13">
-        <v>-0.006441043111179851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03378051564216593</v>
+      </c>
+      <c r="G13">
+        <v>-0.01546076572503777</v>
+      </c>
+      <c r="H13">
+        <v>0.01340376389096351</v>
+      </c>
+      <c r="I13">
+        <v>-0.07161605582240022</v>
+      </c>
+      <c r="J13">
+        <v>-0.03995148228508136</v>
+      </c>
+      <c r="K13">
+        <v>0.1079154152240162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03542163413456674</v>
+        <v>0.04481841264674138</v>
       </c>
       <c r="C14">
-        <v>0.009311759775800676</v>
+        <v>0.007459349381929979</v>
       </c>
       <c r="D14">
-        <v>0.03375737957669075</v>
+        <v>-0.03262997451346948</v>
       </c>
       <c r="E14">
-        <v>-0.01131601019356445</v>
+        <v>-0.002430200935308696</v>
       </c>
       <c r="F14">
-        <v>-0.02228618172672518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03549479349449545</v>
+      </c>
+      <c r="G14">
+        <v>-0.02762369811481947</v>
+      </c>
+      <c r="H14">
+        <v>0.0497395793976422</v>
+      </c>
+      <c r="I14">
+        <v>-0.05842355779225319</v>
+      </c>
+      <c r="J14">
+        <v>0.01269656963276925</v>
+      </c>
+      <c r="K14">
+        <v>0.04069889469555395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05722065606932053</v>
+        <v>0.04464926369992721</v>
       </c>
       <c r="C15">
-        <v>-0.01805755209575175</v>
+        <v>0.01601501142532476</v>
       </c>
       <c r="D15">
-        <v>0.0144516159674899</v>
+        <v>0.01056402420232102</v>
       </c>
       <c r="E15">
-        <v>-0.005002287028809944</v>
+        <v>0.004029285700373406</v>
       </c>
       <c r="F15">
-        <v>-0.02966463339972861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03152414522045909</v>
+      </c>
+      <c r="G15">
+        <v>-0.01092172447713489</v>
+      </c>
+      <c r="H15">
+        <v>0.008786345063520055</v>
+      </c>
+      <c r="I15">
+        <v>-0.0360621161571743</v>
+      </c>
+      <c r="J15">
+        <v>0.03562422795128138</v>
+      </c>
+      <c r="K15">
+        <v>0.06974853921806314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06250931984023063</v>
+        <v>0.07416665960757164</v>
       </c>
       <c r="C16">
-        <v>-0.0613171989074861</v>
+        <v>0.06041500433629816</v>
       </c>
       <c r="D16">
-        <v>0.0408098852362196</v>
+        <v>-0.02942706642611212</v>
       </c>
       <c r="E16">
-        <v>-0.0238314180810119</v>
+        <v>-0.01291200500467144</v>
       </c>
       <c r="F16">
-        <v>-0.0115808558599878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04078822214677776</v>
+      </c>
+      <c r="G16">
+        <v>-0.04045702954920333</v>
+      </c>
+      <c r="H16">
+        <v>0.02718244201194536</v>
+      </c>
+      <c r="I16">
+        <v>-0.04960127959866304</v>
+      </c>
+      <c r="J16">
+        <v>-0.05362274772166514</v>
+      </c>
+      <c r="K16">
+        <v>-0.02229587612825388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06510431082695803</v>
+        <v>0.06016936617237582</v>
       </c>
       <c r="C20">
-        <v>-0.04793732508959549</v>
+        <v>0.03466312468810421</v>
       </c>
       <c r="D20">
-        <v>0.01892076489889016</v>
+        <v>-0.01994528017658229</v>
       </c>
       <c r="E20">
-        <v>-0.02810823159376995</v>
+        <v>-0.01575477526079588</v>
       </c>
       <c r="F20">
-        <v>-0.007921340039547347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.008089019563793766</v>
+      </c>
+      <c r="G20">
+        <v>-0.03739047079781058</v>
+      </c>
+      <c r="H20">
+        <v>0.03572489606412831</v>
+      </c>
+      <c r="I20">
+        <v>-0.1159871217606513</v>
+      </c>
+      <c r="J20">
+        <v>-0.03860460378364654</v>
+      </c>
+      <c r="K20">
+        <v>0.04297336686368186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03813375794361544</v>
+        <v>0.02984547439917679</v>
       </c>
       <c r="C21">
-        <v>-0.02259749554134711</v>
+        <v>0.02486686857789814</v>
       </c>
       <c r="D21">
-        <v>-0.02431986489584067</v>
+        <v>0.02756174756664229</v>
       </c>
       <c r="E21">
-        <v>-0.01293595506990357</v>
+        <v>-0.01300286233614599</v>
       </c>
       <c r="F21">
-        <v>-0.04791588533042849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01071026286898725</v>
+      </c>
+      <c r="G21">
+        <v>-0.008162999869522604</v>
+      </c>
+      <c r="H21">
+        <v>-0.05421318329485601</v>
+      </c>
+      <c r="I21">
+        <v>-0.07471882152364058</v>
+      </c>
+      <c r="J21">
+        <v>0.03938574141735959</v>
+      </c>
+      <c r="K21">
+        <v>0.06373425323623513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1199837931240421</v>
+        <v>0.09337924220922104</v>
       </c>
       <c r="C22">
-        <v>-0.1180588759816876</v>
+        <v>0.08127595279941657</v>
       </c>
       <c r="D22">
-        <v>-0.02420673344766442</v>
+        <v>0.3629585862676274</v>
       </c>
       <c r="E22">
-        <v>0.002667601547323111</v>
+        <v>-0.139229035062172</v>
       </c>
       <c r="F22">
-        <v>-0.3546772401497187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.4166451807493514</v>
+      </c>
+      <c r="G22">
+        <v>0.2839395256120935</v>
+      </c>
+      <c r="H22">
+        <v>-0.06631367464038564</v>
+      </c>
+      <c r="I22">
+        <v>0.2028154019608655</v>
+      </c>
+      <c r="J22">
+        <v>0.0376833497469648</v>
+      </c>
+      <c r="K22">
+        <v>-0.03227005721354966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1209957964076772</v>
+        <v>0.09433390391126099</v>
       </c>
       <c r="C23">
-        <v>-0.1173048256435519</v>
+        <v>0.08156980120281415</v>
       </c>
       <c r="D23">
-        <v>-0.02224958498987337</v>
+        <v>0.3629836793345276</v>
       </c>
       <c r="E23">
-        <v>0.001807465622800157</v>
+        <v>-0.1404048470161386</v>
       </c>
       <c r="F23">
-        <v>-0.3573643781120504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.421317545189064</v>
+      </c>
+      <c r="G23">
+        <v>0.2790975323651888</v>
+      </c>
+      <c r="H23">
+        <v>-0.06475706091504561</v>
+      </c>
+      <c r="I23">
+        <v>0.2030016169966977</v>
+      </c>
+      <c r="J23">
+        <v>0.04335347122843604</v>
+      </c>
+      <c r="K23">
+        <v>-0.03383280006048451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08355423547304719</v>
+        <v>0.08340501545261429</v>
       </c>
       <c r="C24">
-        <v>-0.0590689725934634</v>
+        <v>0.05880122507408314</v>
       </c>
       <c r="D24">
-        <v>0.03838834355080162</v>
+        <v>-0.02138103290455807</v>
       </c>
       <c r="E24">
-        <v>-0.03800691224352151</v>
+        <v>-0.02440800203115199</v>
       </c>
       <c r="F24">
-        <v>-0.0220348120764354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0452502850326048</v>
+      </c>
+      <c r="G24">
+        <v>-0.05908304923060962</v>
+      </c>
+      <c r="H24">
+        <v>0.009201855860052455</v>
+      </c>
+      <c r="I24">
+        <v>-0.06629243778977806</v>
+      </c>
+      <c r="J24">
+        <v>-0.05588665966515184</v>
+      </c>
+      <c r="K24">
+        <v>-0.02865295342413918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07916514004084835</v>
+        <v>0.07763673318958979</v>
       </c>
       <c r="C25">
-        <v>-0.0490935595221624</v>
+        <v>0.04562647670598381</v>
       </c>
       <c r="D25">
-        <v>0.05259607475489338</v>
+        <v>-0.03307452969859518</v>
       </c>
       <c r="E25">
-        <v>-0.04668078342815018</v>
+        <v>-0.02004182921640406</v>
       </c>
       <c r="F25">
-        <v>-0.02949087420624621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0514987825582468</v>
+      </c>
+      <c r="G25">
+        <v>-0.04949012213536664</v>
+      </c>
+      <c r="H25">
+        <v>0.02176500223841291</v>
+      </c>
+      <c r="I25">
+        <v>-0.07818821023086359</v>
+      </c>
+      <c r="J25">
+        <v>-0.06294303573929892</v>
+      </c>
+      <c r="K25">
+        <v>-0.04216728381341282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05274863302583541</v>
+        <v>0.04669686817055714</v>
       </c>
       <c r="C26">
-        <v>-0.01487812503782524</v>
+        <v>0.02439476692234862</v>
       </c>
       <c r="D26">
-        <v>0.004858647549005841</v>
+        <v>0.01223869056331558</v>
       </c>
       <c r="E26">
-        <v>-0.03415604394383953</v>
+        <v>-0.009338028657066592</v>
       </c>
       <c r="F26">
-        <v>0.01990842143840383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01667901150873242</v>
+      </c>
+      <c r="G26">
+        <v>-0.02089235766094213</v>
+      </c>
+      <c r="H26">
+        <v>0.02623109985841685</v>
+      </c>
+      <c r="I26">
+        <v>-0.03510476360659349</v>
+      </c>
+      <c r="J26">
+        <v>0.01836453820236995</v>
+      </c>
+      <c r="K26">
+        <v>0.120614377868069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.05136058662112103</v>
+        <v>0.09085193936501218</v>
       </c>
       <c r="C28">
-        <v>0.2969513332931347</v>
+        <v>-0.2953877327850257</v>
       </c>
       <c r="D28">
-        <v>-0.01034613412008699</v>
+        <v>0.00891188690670754</v>
       </c>
       <c r="E28">
-        <v>-0.08139002356327904</v>
+        <v>-0.0335614376606814</v>
       </c>
       <c r="F28">
-        <v>0.002611567220517091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.006902057117268241</v>
+      </c>
+      <c r="G28">
+        <v>-0.01048935146013725</v>
+      </c>
+      <c r="H28">
+        <v>-0.04085173117320817</v>
+      </c>
+      <c r="I28">
+        <v>0.0200539879039852</v>
+      </c>
+      <c r="J28">
+        <v>0.01678364234166303</v>
+      </c>
+      <c r="K28">
+        <v>0.05510204896490937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05706542641336617</v>
+        <v>0.05424562516734509</v>
       </c>
       <c r="C29">
-        <v>0.002612201098394275</v>
+        <v>0.0101946093503046</v>
       </c>
       <c r="D29">
-        <v>0.03153595513375652</v>
+        <v>-0.02119423395956329</v>
       </c>
       <c r="E29">
-        <v>-0.02378647398740786</v>
+        <v>-0.02100361450932535</v>
       </c>
       <c r="F29">
-        <v>-0.03593393019552862</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03610273999924856</v>
+      </c>
+      <c r="G29">
+        <v>-0.02537090633575496</v>
+      </c>
+      <c r="H29">
+        <v>0.06216499773678655</v>
+      </c>
+      <c r="I29">
+        <v>-0.03978886120856966</v>
+      </c>
+      <c r="J29">
+        <v>0.006153320895130069</v>
+      </c>
+      <c r="K29">
+        <v>0.0377459118640437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1498746752428108</v>
+        <v>0.1290904100845796</v>
       </c>
       <c r="C30">
-        <v>-0.0650464596855351</v>
+        <v>0.05676084189205457</v>
       </c>
       <c r="D30">
-        <v>0.07064406063794496</v>
+        <v>-0.01703347148130525</v>
       </c>
       <c r="E30">
-        <v>-0.05296283622791111</v>
+        <v>-0.05763872223055264</v>
       </c>
       <c r="F30">
-        <v>-0.03503883990845536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.108671256315776</v>
+      </c>
+      <c r="G30">
+        <v>-0.0710434392533148</v>
+      </c>
+      <c r="H30">
+        <v>-0.07513390757291523</v>
+      </c>
+      <c r="I30">
+        <v>-0.2459315185942183</v>
+      </c>
+      <c r="J30">
+        <v>-0.1653635726985156</v>
+      </c>
+      <c r="K30">
+        <v>0.2718654062255281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.06065825921707312</v>
+        <v>0.04781909296082466</v>
       </c>
       <c r="C31">
-        <v>-0.01949423314654391</v>
+        <v>0.03993159959995308</v>
       </c>
       <c r="D31">
-        <v>0.02969892383198047</v>
+        <v>-0.001141016381500406</v>
       </c>
       <c r="E31">
-        <v>-0.000449003264951055</v>
+        <v>0.004998674386634551</v>
       </c>
       <c r="F31">
-        <v>0.007993512969475699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02102770682517616</v>
+      </c>
+      <c r="G31">
+        <v>0.005404044767382334</v>
+      </c>
+      <c r="H31">
+        <v>0.05945588968612145</v>
+      </c>
+      <c r="I31">
+        <v>-0.04158758945708787</v>
+      </c>
+      <c r="J31">
+        <v>0.009905504924584228</v>
+      </c>
+      <c r="K31">
+        <v>0.01788289338711102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04467843965919074</v>
+        <v>0.04948408016416162</v>
       </c>
       <c r="C32">
-        <v>-0.004000158314470988</v>
+        <v>-0.006805094393929872</v>
       </c>
       <c r="D32">
-        <v>0.004382473943686399</v>
+        <v>0.02923989879024419</v>
       </c>
       <c r="E32">
-        <v>0.001576581697459595</v>
+        <v>-0.01500327430697914</v>
       </c>
       <c r="F32">
-        <v>-0.04927169772253943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.06080987698288624</v>
+      </c>
+      <c r="G32">
+        <v>0.007226078184299094</v>
+      </c>
+      <c r="H32">
+        <v>0.001801280182459709</v>
+      </c>
+      <c r="I32">
+        <v>0.01075819469497116</v>
+      </c>
+      <c r="J32">
+        <v>-0.02865906480561673</v>
+      </c>
+      <c r="K32">
+        <v>0.1311355910032933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1020952989043498</v>
+        <v>0.1057466577408786</v>
       </c>
       <c r="C33">
-        <v>-0.02757205760886929</v>
+        <v>0.04601083572165389</v>
       </c>
       <c r="D33">
-        <v>0.03920162207428529</v>
+        <v>-0.007277926501510525</v>
       </c>
       <c r="E33">
-        <v>-0.008604879095809932</v>
+        <v>0.01976555275918981</v>
       </c>
       <c r="F33">
-        <v>0.0192304617456852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03572374317116727</v>
+      </c>
+      <c r="G33">
+        <v>-0.02081422809892831</v>
+      </c>
+      <c r="H33">
+        <v>0.03987832416126593</v>
+      </c>
+      <c r="I33">
+        <v>-0.06888212205924556</v>
+      </c>
+      <c r="J33">
+        <v>-0.008736502879877369</v>
+      </c>
+      <c r="K33">
+        <v>0.02511497577088664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06438366292811852</v>
+        <v>0.06965876100415686</v>
       </c>
       <c r="C34">
-        <v>-0.0616267939067404</v>
+        <v>0.04999381339615466</v>
       </c>
       <c r="D34">
-        <v>0.03252958453014319</v>
+        <v>-0.02136493793716262</v>
       </c>
       <c r="E34">
-        <v>-0.02263688824173693</v>
+        <v>-0.01008486417789419</v>
       </c>
       <c r="F34">
-        <v>-0.03103095428610907</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03410509214186351</v>
+      </c>
+      <c r="G34">
+        <v>-0.0472022152025072</v>
+      </c>
+      <c r="H34">
+        <v>0.0326021833041782</v>
+      </c>
+      <c r="I34">
+        <v>-0.0600974838280867</v>
+      </c>
+      <c r="J34">
+        <v>-0.04180833804674518</v>
+      </c>
+      <c r="K34">
+        <v>-0.04619013693251328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04112915659775575</v>
+        <v>0.03522771059917569</v>
       </c>
       <c r="C35">
-        <v>-0.008502861258735667</v>
+        <v>0.01944895886765589</v>
       </c>
       <c r="D35">
-        <v>0.01864386798883202</v>
+        <v>-0.01015369583392459</v>
       </c>
       <c r="E35">
-        <v>-0.001550639824240008</v>
+        <v>0.008786236878452414</v>
       </c>
       <c r="F35">
-        <v>-0.01022754630162249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01742301897277052</v>
+      </c>
+      <c r="G35">
+        <v>0.006794145582194924</v>
+      </c>
+      <c r="H35">
+        <v>0.02683363115609774</v>
+      </c>
+      <c r="I35">
+        <v>-0.06030582131793268</v>
+      </c>
+      <c r="J35">
+        <v>-0.02827792591962219</v>
+      </c>
+      <c r="K35">
+        <v>0.01442286109088424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03838916911008378</v>
+        <v>0.0345644952335007</v>
       </c>
       <c r="C36">
-        <v>-0.01378770524859856</v>
+        <v>0.01270274279582931</v>
       </c>
       <c r="D36">
-        <v>0.01706663283340267</v>
+        <v>-0.001791416430766466</v>
       </c>
       <c r="E36">
-        <v>-0.03165362364721478</v>
+        <v>-0.02082165949461562</v>
       </c>
       <c r="F36">
-        <v>-0.009479551921695768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03155216424183734</v>
+      </c>
+      <c r="G36">
+        <v>-0.02303836906265704</v>
+      </c>
+      <c r="H36">
+        <v>0.0198638280622644</v>
+      </c>
+      <c r="I36">
+        <v>-0.06897690081889961</v>
+      </c>
+      <c r="J36">
+        <v>-0.01439807757596121</v>
+      </c>
+      <c r="K36">
+        <v>0.04453353060895939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06804047792472598</v>
+        <v>0.04993524852624244</v>
       </c>
       <c r="C38">
-        <v>-0.01855688576707984</v>
+        <v>0.05046099226719289</v>
       </c>
       <c r="D38">
-        <v>-0.01869248762708735</v>
+        <v>0.04327721862061567</v>
       </c>
       <c r="E38">
-        <v>0.01649761423449441</v>
+        <v>-0.01592694676443742</v>
       </c>
       <c r="F38">
-        <v>-0.04934231023368715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.004572433504039326</v>
+      </c>
+      <c r="G38">
+        <v>-0.001246257131468118</v>
+      </c>
+      <c r="H38">
+        <v>-0.0009318326503251792</v>
+      </c>
+      <c r="I38">
+        <v>0.08736118951358468</v>
+      </c>
+      <c r="J38">
+        <v>-0.01127791194167706</v>
+      </c>
+      <c r="K38">
+        <v>0.07631724594817077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.0937683006873871</v>
+        <v>0.09886978861581082</v>
       </c>
       <c r="C39">
-        <v>-0.04538593657137526</v>
+        <v>0.05250974175970493</v>
       </c>
       <c r="D39">
-        <v>0.04079832604539685</v>
+        <v>-0.02378342529186279</v>
       </c>
       <c r="E39">
-        <v>-0.004187504725479223</v>
+        <v>-0.01182475001935495</v>
       </c>
       <c r="F39">
-        <v>-0.02329001722105095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04096084021820513</v>
+      </c>
+      <c r="G39">
+        <v>-0.04225009956951478</v>
+      </c>
+      <c r="H39">
+        <v>0.01015724013116678</v>
+      </c>
+      <c r="I39">
+        <v>-0.06684221676282572</v>
+      </c>
+      <c r="J39">
+        <v>-0.1660479294363328</v>
+      </c>
+      <c r="K39">
+        <v>0.009214242269019578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07204069050934239</v>
+        <v>0.04465729778677977</v>
       </c>
       <c r="C40">
-        <v>-0.01140068046930091</v>
+        <v>0.04002881213332341</v>
       </c>
       <c r="D40">
-        <v>0.02222729878896927</v>
+        <v>0.05473021521829724</v>
       </c>
       <c r="E40">
-        <v>-0.01648442332467494</v>
+        <v>-0.009070283012021325</v>
       </c>
       <c r="F40">
-        <v>-0.09413270149446663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.05300264279283964</v>
+      </c>
+      <c r="G40">
+        <v>-0.07747174007657366</v>
+      </c>
+      <c r="H40">
+        <v>-0.09111076130834091</v>
+      </c>
+      <c r="I40">
+        <v>-0.07077189248527502</v>
+      </c>
+      <c r="J40">
+        <v>-0.2678987593733634</v>
+      </c>
+      <c r="K40">
+        <v>0.1075964220917642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.0610983362145923</v>
+        <v>0.04756464322955311</v>
       </c>
       <c r="C41">
-        <v>-0.02495625894344312</v>
+        <v>0.02981360024373484</v>
       </c>
       <c r="D41">
-        <v>0.009823608516082985</v>
+        <v>-0.009830535691535604</v>
       </c>
       <c r="E41">
-        <v>0.004051094853311292</v>
+        <v>0.003205821289325665</v>
       </c>
       <c r="F41">
-        <v>-0.0093161057070923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01920781520871046</v>
+      </c>
+      <c r="G41">
+        <v>-0.01916274246185994</v>
+      </c>
+      <c r="H41">
+        <v>0.03178863283912751</v>
+      </c>
+      <c r="I41">
+        <v>-0.0008050811427883367</v>
+      </c>
+      <c r="J41">
+        <v>-0.0356341516884669</v>
+      </c>
+      <c r="K41">
+        <v>0.04174134175898715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06524648452462206</v>
+        <v>0.06192743099403487</v>
       </c>
       <c r="C43">
-        <v>-0.01702641597809926</v>
+        <v>0.03525058293280753</v>
       </c>
       <c r="D43">
-        <v>0.01836054138324831</v>
+        <v>-0.01051069841129632</v>
       </c>
       <c r="E43">
-        <v>-0.02096863426574218</v>
+        <v>-0.02151149618438948</v>
       </c>
       <c r="F43">
-        <v>0.002441300836048791</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.009679827612770669</v>
+      </c>
+      <c r="G43">
+        <v>-0.009293789828820571</v>
+      </c>
+      <c r="H43">
+        <v>0.05751733583193847</v>
+      </c>
+      <c r="I43">
+        <v>-0.005136759841024576</v>
+      </c>
+      <c r="J43">
+        <v>-0.0218219382857042</v>
+      </c>
+      <c r="K43">
+        <v>0.009487438634339282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09114517481024892</v>
+        <v>0.09406412761683791</v>
       </c>
       <c r="C44">
-        <v>-0.05031345021119541</v>
+        <v>0.05358948181319603</v>
       </c>
       <c r="D44">
-        <v>0.01314872601003808</v>
+        <v>0.006857006503426818</v>
       </c>
       <c r="E44">
-        <v>-0.08653767451177036</v>
+        <v>-0.1045415222813821</v>
       </c>
       <c r="F44">
-        <v>-0.1083491323549665</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.08410852138424592</v>
+      </c>
+      <c r="G44">
+        <v>-0.07883949087157135</v>
+      </c>
+      <c r="H44">
+        <v>0.05309912897762267</v>
+      </c>
+      <c r="I44">
+        <v>-0.1223639184570592</v>
+      </c>
+      <c r="J44">
+        <v>-0.1047359340266696</v>
+      </c>
+      <c r="K44">
+        <v>0.01968817759492007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03274802093627405</v>
+        <v>0.04776252579794855</v>
       </c>
       <c r="C46">
-        <v>-0.03194395811368413</v>
+        <v>0.03034384837714311</v>
       </c>
       <c r="D46">
-        <v>0.01649800531756199</v>
+        <v>-0.01342893179507987</v>
       </c>
       <c r="E46">
-        <v>-0.01764159453830695</v>
+        <v>-0.02512501347136191</v>
       </c>
       <c r="F46">
-        <v>-0.04709216368923456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04176782621039363</v>
+      </c>
+      <c r="G46">
+        <v>-0.007005721553857748</v>
+      </c>
+      <c r="H46">
+        <v>0.02516920321120318</v>
+      </c>
+      <c r="I46">
+        <v>-0.03834603793902042</v>
+      </c>
+      <c r="J46">
+        <v>0.02530221454222254</v>
+      </c>
+      <c r="K46">
+        <v>0.0385191242207354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03907042184778119</v>
+        <v>0.04735845250590674</v>
       </c>
       <c r="C47">
-        <v>0.006636270725255917</v>
+        <v>0.009949058481828581</v>
       </c>
       <c r="D47">
-        <v>0.008644398579748939</v>
+        <v>0.01100132114312649</v>
       </c>
       <c r="E47">
-        <v>-0.01445748728922104</v>
+        <v>-0.002841775151394562</v>
       </c>
       <c r="F47">
-        <v>-0.06373790900282414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04084207419825437</v>
+      </c>
+      <c r="G47">
+        <v>0.00783653480862526</v>
+      </c>
+      <c r="H47">
+        <v>0.02116474292077187</v>
+      </c>
+      <c r="I47">
+        <v>-0.03418193084017569</v>
+      </c>
+      <c r="J47">
+        <v>0.02148910609382162</v>
+      </c>
+      <c r="K47">
+        <v>-0.0007696749057913913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05073671457387043</v>
+        <v>0.04442866102340513</v>
       </c>
       <c r="C48">
-        <v>-0.02014917043227759</v>
+        <v>0.01526612155894905</v>
       </c>
       <c r="D48">
-        <v>0.03121884541393834</v>
+        <v>0.005333079367787926</v>
       </c>
       <c r="E48">
-        <v>-0.02059635792747014</v>
+        <v>-0.004336118655061699</v>
       </c>
       <c r="F48">
-        <v>-0.02592147083492581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04260172170205707</v>
+      </c>
+      <c r="G48">
+        <v>-0.001586558635058938</v>
+      </c>
+      <c r="H48">
+        <v>-0.008001112079794712</v>
+      </c>
+      <c r="I48">
+        <v>-0.05907951315281201</v>
+      </c>
+      <c r="J48">
+        <v>-0.003944087706321191</v>
+      </c>
+      <c r="K48">
+        <v>0.05438651401312457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1491654823230031</v>
+        <v>0.2057116324965602</v>
       </c>
       <c r="C49">
-        <v>-0.01495339058843526</v>
+        <v>0.02332507046531598</v>
       </c>
       <c r="D49">
-        <v>0.08671816751400141</v>
+        <v>-0.1734370546519254</v>
       </c>
       <c r="E49">
-        <v>-0.02724741040489078</v>
+        <v>0.03154230442599072</v>
       </c>
       <c r="F49">
-        <v>0.1323587400307419</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.07439418198729847</v>
+      </c>
+      <c r="G49">
+        <v>0.1328898019547387</v>
+      </c>
+      <c r="H49">
+        <v>-0.1929000518695871</v>
+      </c>
+      <c r="I49">
+        <v>0.1237449966685116</v>
+      </c>
+      <c r="J49">
+        <v>-0.07928310181360486</v>
+      </c>
+      <c r="K49">
+        <v>-0.216405061322478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06678431450549369</v>
+        <v>0.05611131322765858</v>
       </c>
       <c r="C50">
-        <v>-0.02461797917652419</v>
+        <v>0.03692651803238721</v>
       </c>
       <c r="D50">
-        <v>0.03762337430196796</v>
+        <v>-0.009550693767071298</v>
       </c>
       <c r="E50">
-        <v>-0.001835751208732648</v>
+        <v>0.01091377556513991</v>
       </c>
       <c r="F50">
-        <v>-0.01331100095178032</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03740255239584017</v>
+      </c>
+      <c r="G50">
+        <v>-0.01120071100212766</v>
+      </c>
+      <c r="H50">
+        <v>0.05859190311123977</v>
+      </c>
+      <c r="I50">
+        <v>-0.03861751510383432</v>
+      </c>
+      <c r="J50">
+        <v>0.02646282500168725</v>
+      </c>
+      <c r="K50">
+        <v>0.03356446745377312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03932810079734435</v>
+        <v>0.04132322049924977</v>
       </c>
       <c r="C51">
-        <v>0.001021888516090149</v>
+        <v>0.001998311649036748</v>
       </c>
       <c r="D51">
-        <v>-0.0102935912804055</v>
+        <v>0.007969808041424132</v>
       </c>
       <c r="E51">
-        <v>-0.001936912761406747</v>
+        <v>-0.02281866440131178</v>
       </c>
       <c r="F51">
-        <v>-0.01025993231467672</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0296698536451813</v>
+      </c>
+      <c r="G51">
+        <v>0.01259123363772563</v>
+      </c>
+      <c r="H51">
+        <v>-0.01856930357446391</v>
+      </c>
+      <c r="I51">
+        <v>0.01298285529044089</v>
+      </c>
+      <c r="J51">
+        <v>-0.04833366419285719</v>
+      </c>
+      <c r="K51">
+        <v>-0.06426701029016618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1526611030590131</v>
+        <v>0.1547502804954494</v>
       </c>
       <c r="C53">
-        <v>0.03285102373496635</v>
+        <v>0.01358469188231118</v>
       </c>
       <c r="D53">
-        <v>0.07130645445855328</v>
+        <v>-0.06749602815015104</v>
       </c>
       <c r="E53">
-        <v>-0.002996578561058251</v>
+        <v>0.02288215271084123</v>
       </c>
       <c r="F53">
-        <v>0.0278881394031837</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.006374550139339888</v>
+      </c>
+      <c r="G53">
+        <v>0.02711086484741529</v>
+      </c>
+      <c r="H53">
+        <v>0.2304423546995225</v>
+      </c>
+      <c r="I53">
+        <v>0.07442502174076683</v>
+      </c>
+      <c r="J53">
+        <v>0.04999413957921544</v>
+      </c>
+      <c r="K53">
+        <v>-0.05520795563671014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06447828853934535</v>
+        <v>0.06357561975271855</v>
       </c>
       <c r="C54">
-        <v>-0.01922174995570077</v>
+        <v>0.01192667318412339</v>
       </c>
       <c r="D54">
-        <v>0.00028928887220192</v>
+        <v>0.01572311199610224</v>
       </c>
       <c r="E54">
-        <v>-0.03730210991795697</v>
+        <v>-0.03791176199786057</v>
       </c>
       <c r="F54">
-        <v>-0.05982076970515032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.06167565844378848</v>
+      </c>
+      <c r="G54">
+        <v>-0.06033034164694195</v>
+      </c>
+      <c r="H54">
+        <v>0.02202805618443259</v>
+      </c>
+      <c r="I54">
+        <v>-0.1161060857353933</v>
+      </c>
+      <c r="J54">
+        <v>0.01039146738340033</v>
+      </c>
+      <c r="K54">
+        <v>0.06671448879657922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09487075112965716</v>
+        <v>0.09524763883566283</v>
       </c>
       <c r="C55">
-        <v>0.002837704050490064</v>
+        <v>0.02582103551710437</v>
       </c>
       <c r="D55">
-        <v>0.05372059659450816</v>
+        <v>-0.04866558537838041</v>
       </c>
       <c r="E55">
-        <v>-0.02174117807581325</v>
+        <v>-0.00524889534819029</v>
       </c>
       <c r="F55">
-        <v>-0.02334922053783443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01003556087480883</v>
+      </c>
+      <c r="G55">
+        <v>-0.02608117606538921</v>
+      </c>
+      <c r="H55">
+        <v>0.1796082598485775</v>
+      </c>
+      <c r="I55">
+        <v>0.002740340352753305</v>
+      </c>
+      <c r="J55">
+        <v>0.02398617161977402</v>
+      </c>
+      <c r="K55">
+        <v>-0.04726084442748822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1526468606519923</v>
+        <v>0.151444596046197</v>
       </c>
       <c r="C56">
-        <v>0.02945412372532311</v>
+        <v>0.03260511266236849</v>
       </c>
       <c r="D56">
-        <v>0.08709985289755198</v>
+        <v>-0.06947254569644937</v>
       </c>
       <c r="E56">
-        <v>-0.04093151539696001</v>
+        <v>0.001906124576928001</v>
       </c>
       <c r="F56">
-        <v>0.04235516183399498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.009955803194718655</v>
+      </c>
+      <c r="G56">
+        <v>0.00824270560836938</v>
+      </c>
+      <c r="H56">
+        <v>0.2331223159943595</v>
+      </c>
+      <c r="I56">
+        <v>0.08700333369392685</v>
+      </c>
+      <c r="J56">
+        <v>0.03285955091360902</v>
+      </c>
+      <c r="K56">
+        <v>-0.01258255845920055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2692,1355 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1161629044546783</v>
+        <v>0.07484568297490149</v>
       </c>
       <c r="C58">
-        <v>-0.06355290981718398</v>
+        <v>0.04965850635649271</v>
       </c>
       <c r="D58">
-        <v>-0.1350883740937052</v>
+        <v>0.1678725805166152</v>
       </c>
       <c r="E58">
-        <v>-0.1127331788225665</v>
+        <v>-0.09350214295040904</v>
       </c>
       <c r="F58">
-        <v>-0.1820375879711361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.03484840661548003</v>
+      </c>
+      <c r="G58">
+        <v>0.1141869934471355</v>
+      </c>
+      <c r="H58">
+        <v>-0.1767634875704561</v>
+      </c>
+      <c r="I58">
+        <v>-0.5187951475601116</v>
+      </c>
+      <c r="J58">
+        <v>-0.1164899689301255</v>
+      </c>
+      <c r="K58">
+        <v>-0.187328298584153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1387823597897728</v>
+        <v>0.1740688190627085</v>
       </c>
       <c r="C59">
-        <v>0.4408323579865814</v>
+        <v>-0.3528088124117135</v>
       </c>
       <c r="D59">
-        <v>-0.03898123166199294</v>
+        <v>0.02731216764365651</v>
       </c>
       <c r="E59">
-        <v>-0.09218889848474579</v>
+        <v>-0.03832699365187998</v>
       </c>
       <c r="F59">
-        <v>-0.06202104853791073</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.03145490554950795</v>
+      </c>
+      <c r="G59">
+        <v>-0.0264718383155122</v>
+      </c>
+      <c r="H59">
+        <v>0.04016250555126354</v>
+      </c>
+      <c r="I59">
+        <v>0.0562234750524742</v>
+      </c>
+      <c r="J59">
+        <v>-0.05138030231348388</v>
+      </c>
+      <c r="K59">
+        <v>0.008116111552213642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2219692411714865</v>
+        <v>0.2468104580535925</v>
       </c>
       <c r="C60">
-        <v>0.01962107891291594</v>
+        <v>0.04082411875317246</v>
       </c>
       <c r="D60">
-        <v>0.08178181589166322</v>
+        <v>-0.1304868879133425</v>
       </c>
       <c r="E60">
-        <v>-0.04905518659326187</v>
+        <v>-0.008506350642458539</v>
       </c>
       <c r="F60">
-        <v>0.02080700697240596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05507927916302008</v>
+      </c>
+      <c r="G60">
+        <v>0.01116828653163083</v>
+      </c>
+      <c r="H60">
+        <v>-0.1062945795523701</v>
+      </c>
+      <c r="I60">
+        <v>0.1073851525027416</v>
+      </c>
+      <c r="J60">
+        <v>0.09862020294213929</v>
+      </c>
+      <c r="K60">
+        <v>-0.1685150715457562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.07936932421170732</v>
+        <v>0.08813685337569953</v>
       </c>
       <c r="C61">
-        <v>-0.02385865350278028</v>
+        <v>0.03736089493143842</v>
       </c>
       <c r="D61">
-        <v>0.03103454799904374</v>
+        <v>-0.02306676286067198</v>
       </c>
       <c r="E61">
-        <v>-0.007411939170137482</v>
+        <v>-0.02033143260421633</v>
       </c>
       <c r="F61">
-        <v>-0.006974776704158751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03017277987146444</v>
+      </c>
+      <c r="G61">
+        <v>-0.05238994521755212</v>
+      </c>
+      <c r="H61">
+        <v>0.06157993742146056</v>
+      </c>
+      <c r="I61">
+        <v>-0.03387097821317945</v>
+      </c>
+      <c r="J61">
+        <v>-0.08864689835172389</v>
+      </c>
+      <c r="K61">
+        <v>0.009384173082773187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1492741645901828</v>
+        <v>0.1456101180936469</v>
       </c>
       <c r="C62">
-        <v>0.02123834503926222</v>
+        <v>0.03880173372145364</v>
       </c>
       <c r="D62">
-        <v>0.04186122259974619</v>
+        <v>-0.04726148966540423</v>
       </c>
       <c r="E62">
-        <v>0.01972538575268337</v>
+        <v>0.04634252725451394</v>
       </c>
       <c r="F62">
-        <v>0.06107144840230398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0221482857659898</v>
+      </c>
+      <c r="G62">
+        <v>-0.01630941989134698</v>
+      </c>
+      <c r="H62">
+        <v>0.2264338266642215</v>
+      </c>
+      <c r="I62">
+        <v>0.07693682183482314</v>
+      </c>
+      <c r="J62">
+        <v>0.09470667002222904</v>
+      </c>
+      <c r="K62">
+        <v>-0.01941099910361227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06097780350305684</v>
+        <v>0.05356210100151579</v>
       </c>
       <c r="C63">
-        <v>-0.02826029438800318</v>
+        <v>0.02228902271198057</v>
       </c>
       <c r="D63">
-        <v>0.02024021756981648</v>
+        <v>-0.003679812335087678</v>
       </c>
       <c r="E63">
-        <v>-0.01454623824796413</v>
+        <v>0.003092486259637433</v>
       </c>
       <c r="F63">
-        <v>-0.009013396945652024</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03067575269288878</v>
+      </c>
+      <c r="G63">
+        <v>-0.04222220342379671</v>
+      </c>
+      <c r="H63">
+        <v>0.02149543714375487</v>
+      </c>
+      <c r="I63">
+        <v>-0.0529112287494248</v>
+      </c>
+      <c r="J63">
+        <v>0.02353413199011926</v>
+      </c>
+      <c r="K63">
+        <v>0.03165861994384532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.09774999736498459</v>
+        <v>0.1046823853220044</v>
       </c>
       <c r="C64">
-        <v>0.004811718445939295</v>
+        <v>0.01598418692793507</v>
       </c>
       <c r="D64">
-        <v>0.06031103832508229</v>
+        <v>-0.05004447863870629</v>
       </c>
       <c r="E64">
-        <v>-0.02873467753885587</v>
+        <v>-0.02702616712906966</v>
       </c>
       <c r="F64">
-        <v>-0.04582086193300543</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0668451860519072</v>
+      </c>
+      <c r="G64">
+        <v>-0.04786769725874858</v>
+      </c>
+      <c r="H64">
+        <v>-0.01718506893784833</v>
+      </c>
+      <c r="I64">
+        <v>-0.03953344399282436</v>
+      </c>
+      <c r="J64">
+        <v>-0.05026997803885811</v>
+      </c>
+      <c r="K64">
+        <v>0.03147120626762376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1249280032997115</v>
+        <v>0.1326367337359705</v>
       </c>
       <c r="C65">
-        <v>-0.03058698053422991</v>
+        <v>0.01840015835246856</v>
       </c>
       <c r="D65">
-        <v>0.05215634442725585</v>
+        <v>-0.05665349306908935</v>
       </c>
       <c r="E65">
-        <v>-0.04109382282946002</v>
+        <v>0.009489830602367902</v>
       </c>
       <c r="F65">
-        <v>-0.08796824034117236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.05837145716116907</v>
+      </c>
+      <c r="G65">
+        <v>-0.1036860322478436</v>
+      </c>
+      <c r="H65">
+        <v>-0.1803550550246529</v>
+      </c>
+      <c r="I65">
+        <v>-0.2445285350557235</v>
+      </c>
+      <c r="J65">
+        <v>0.6102095160842541</v>
+      </c>
+      <c r="K65">
+        <v>-0.1022005561868222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1579498267713087</v>
+        <v>0.1448839277624727</v>
       </c>
       <c r="C66">
-        <v>-0.07994849605047186</v>
+        <v>0.09721100071753244</v>
       </c>
       <c r="D66">
-        <v>0.06169211337582981</v>
+        <v>-0.03320933594152391</v>
       </c>
       <c r="E66">
-        <v>-0.01176456391859316</v>
+        <v>-0.0009363483355193948</v>
       </c>
       <c r="F66">
-        <v>0.02672753291767964</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03561453096307163</v>
+      </c>
+      <c r="G66">
+        <v>-0.08219122054275346</v>
+      </c>
+      <c r="H66">
+        <v>0.0328944725332959</v>
+      </c>
+      <c r="I66">
+        <v>-0.05797100656865994</v>
+      </c>
+      <c r="J66">
+        <v>-0.2438571852376018</v>
+      </c>
+      <c r="K66">
+        <v>0.06645569266661848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09842447891596595</v>
+        <v>0.09679847995580076</v>
       </c>
       <c r="C67">
-        <v>-0.01938874010479651</v>
+        <v>0.05126634717078488</v>
       </c>
       <c r="D67">
-        <v>-0.02311603162996117</v>
+        <v>0.01669344093046827</v>
       </c>
       <c r="E67">
-        <v>-0.005584446759690512</v>
+        <v>-0.0370532824019327</v>
       </c>
       <c r="F67">
-        <v>-0.009371836263816718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03030824619235107</v>
+      </c>
+      <c r="G67">
+        <v>-0.02148803948544292</v>
+      </c>
+      <c r="H67">
+        <v>-0.008972681781704269</v>
+      </c>
+      <c r="I67">
+        <v>0.1299303592826725</v>
+      </c>
+      <c r="J67">
+        <v>-0.0372065018113226</v>
+      </c>
+      <c r="K67">
+        <v>0.04854274743818011</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04772105644139309</v>
+        <v>0.08198614791266785</v>
       </c>
       <c r="C68">
-        <v>0.2561373624504667</v>
+        <v>-0.2778738686073314</v>
       </c>
       <c r="D68">
-        <v>-0.02362795368645814</v>
+        <v>0.028992983424254</v>
       </c>
       <c r="E68">
-        <v>-0.04592898454539268</v>
+        <v>-0.02795279580562913</v>
       </c>
       <c r="F68">
-        <v>-0.03683373156664415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02868997555349473</v>
+      </c>
+      <c r="G68">
+        <v>0.01678778230308944</v>
+      </c>
+      <c r="H68">
+        <v>0.02265584897607786</v>
+      </c>
+      <c r="I68">
+        <v>-0.04343496848659606</v>
+      </c>
+      <c r="J68">
+        <v>0.04090872847713777</v>
+      </c>
+      <c r="K68">
+        <v>0.01530843413817261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06739495506262447</v>
+        <v>0.05606492111316698</v>
       </c>
       <c r="C69">
-        <v>-0.01233444218047309</v>
+        <v>0.01721227588781011</v>
       </c>
       <c r="D69">
-        <v>-0.0006731640933881108</v>
+        <v>0.01587659747272733</v>
       </c>
       <c r="E69">
-        <v>-0.01666742606145543</v>
+        <v>0.003792719970068286</v>
       </c>
       <c r="F69">
-        <v>-0.01236826231102126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-6.019635099560211e-05</v>
+      </c>
+      <c r="G69">
+        <v>-0.01663215626121552</v>
+      </c>
+      <c r="H69">
+        <v>0.03423563897044456</v>
+      </c>
+      <c r="I69">
+        <v>-0.009588434501091109</v>
+      </c>
+      <c r="J69">
+        <v>-0.006654280839105758</v>
+      </c>
+      <c r="K69">
+        <v>-0.001279340927501415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01476675147771148</v>
+        <v>0.03922245611764967</v>
       </c>
       <c r="C70">
-        <v>0.01605200070931941</v>
+        <v>0.004936199551720493</v>
       </c>
       <c r="D70">
-        <v>-0.006376772272864444</v>
+        <v>-0.009620493947529474</v>
       </c>
       <c r="E70">
-        <v>0.0149450831311933</v>
+        <v>0.002952856384645907</v>
       </c>
       <c r="F70">
-        <v>0.01557509251411814</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.05213708046668352</v>
+      </c>
+      <c r="G70">
+        <v>-0.008880427578200284</v>
+      </c>
+      <c r="H70">
+        <v>-0.02778167693585864</v>
+      </c>
+      <c r="I70">
+        <v>0.03009354703619559</v>
+      </c>
+      <c r="J70">
+        <v>-0.007083839929663353</v>
+      </c>
+      <c r="K70">
+        <v>0.1241508047033797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04498944791498597</v>
+        <v>0.09144234810517668</v>
       </c>
       <c r="C71">
-        <v>0.2842196829061786</v>
+        <v>-0.2972184557324755</v>
       </c>
       <c r="D71">
-        <v>-0.02571627037099215</v>
+        <v>0.0170259973385358</v>
       </c>
       <c r="E71">
-        <v>-0.07815711280461704</v>
+        <v>-0.04638781255290852</v>
       </c>
       <c r="F71">
-        <v>-0.02898172203182832</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03124013547875586</v>
+      </c>
+      <c r="G71">
+        <v>0.004571350006984826</v>
+      </c>
+      <c r="H71">
+        <v>0.01442130896492148</v>
+      </c>
+      <c r="I71">
+        <v>-0.02045793705692499</v>
+      </c>
+      <c r="J71">
+        <v>0.008425589436125319</v>
+      </c>
+      <c r="K71">
+        <v>0.004743739068528555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1452274214946574</v>
+        <v>0.135403392269367</v>
       </c>
       <c r="C72">
-        <v>0.04319252801898196</v>
+        <v>-0.002017552442112824</v>
       </c>
       <c r="D72">
-        <v>0.03243383432146465</v>
+        <v>0.02629511018158639</v>
       </c>
       <c r="E72">
-        <v>0.2337921405917106</v>
+        <v>0.1704102088740551</v>
       </c>
       <c r="F72">
-        <v>-0.04849182575586692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0043982743947968</v>
+      </c>
+      <c r="G72">
+        <v>-0.1224720813988735</v>
+      </c>
+      <c r="H72">
+        <v>0.0260893606666827</v>
+      </c>
+      <c r="I72">
+        <v>0.006815462209011263</v>
+      </c>
+      <c r="J72">
+        <v>0.08399911924997439</v>
+      </c>
+      <c r="K72">
+        <v>-0.1282861945484454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2501712986295687</v>
+        <v>0.2436787781963082</v>
       </c>
       <c r="C73">
-        <v>-0.05318876351510225</v>
+        <v>0.1057472186849588</v>
       </c>
       <c r="D73">
-        <v>0.101005025571505</v>
+        <v>-0.2071674890844714</v>
       </c>
       <c r="E73">
-        <v>-0.09116786845759324</v>
+        <v>-0.04112316563503744</v>
       </c>
       <c r="F73">
-        <v>0.2022425060610013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2177738165907014</v>
+      </c>
+      <c r="G73">
+        <v>0.2307646815165942</v>
+      </c>
+      <c r="H73">
+        <v>-0.2880424692333418</v>
+      </c>
+      <c r="I73">
+        <v>0.121949612130856</v>
+      </c>
+      <c r="J73">
+        <v>-0.2466524687573708</v>
+      </c>
+      <c r="K73">
+        <v>-0.44255119106771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08694356533437726</v>
+        <v>0.09264573280881491</v>
       </c>
       <c r="C74">
-        <v>0.01345048672597563</v>
+        <v>0.03278592212517668</v>
       </c>
       <c r="D74">
-        <v>0.05927570694749406</v>
+        <v>-0.04340196734080356</v>
       </c>
       <c r="E74">
-        <v>-0.003439068814980727</v>
+        <v>0.01730273614477853</v>
       </c>
       <c r="F74">
-        <v>-0.002686597683513874</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01630628035547148</v>
+      </c>
+      <c r="G74">
+        <v>0.03177190491277885</v>
+      </c>
+      <c r="H74">
+        <v>0.1416950406776194</v>
+      </c>
+      <c r="I74">
+        <v>0.01441382603025172</v>
+      </c>
+      <c r="J74">
+        <v>-0.01047333730308313</v>
+      </c>
+      <c r="K74">
+        <v>-0.05616801506074984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.122117510071169</v>
+        <v>0.105007643831543</v>
       </c>
       <c r="C75">
-        <v>0.001139246513548624</v>
+        <v>0.03005864344822934</v>
       </c>
       <c r="D75">
-        <v>0.00357809838515375</v>
+        <v>0.01222469067134692</v>
       </c>
       <c r="E75">
-        <v>-0.02310200481056191</v>
+        <v>0.003163470548737439</v>
       </c>
       <c r="F75">
-        <v>0.02811742789014503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03206369287795496</v>
+      </c>
+      <c r="G75">
+        <v>0.02039318035289676</v>
+      </c>
+      <c r="H75">
+        <v>0.1228325561708842</v>
+      </c>
+      <c r="I75">
+        <v>0.03655005623997708</v>
+      </c>
+      <c r="J75">
+        <v>0.04477068986671277</v>
+      </c>
+      <c r="K75">
+        <v>-0.01464622868963867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1404303077590525</v>
+        <v>0.126294581766611</v>
       </c>
       <c r="C76">
-        <v>0.006898985672288725</v>
+        <v>0.05029346554297749</v>
       </c>
       <c r="D76">
-        <v>0.07355782611851223</v>
+        <v>-0.06454534095191547</v>
       </c>
       <c r="E76">
-        <v>-0.02253300822927772</v>
+        <v>-0.002541972208140886</v>
       </c>
       <c r="F76">
-        <v>-0.01434905410959545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01565421646959317</v>
+      </c>
+      <c r="G76">
+        <v>0.01638650190366432</v>
+      </c>
+      <c r="H76">
+        <v>0.25778962137634</v>
+      </c>
+      <c r="I76">
+        <v>0.06303549373767903</v>
+      </c>
+      <c r="J76">
+        <v>0.04558650682978554</v>
+      </c>
+      <c r="K76">
+        <v>-0.02339005684354475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1310563780580677</v>
+        <v>0.09056584906719399</v>
       </c>
       <c r="C77">
-        <v>-0.03187891889758732</v>
+        <v>0.02831474100227068</v>
       </c>
       <c r="D77">
-        <v>-0.08976323520506777</v>
+        <v>0.1463234136315051</v>
       </c>
       <c r="E77">
-        <v>-0.03539463534170078</v>
+        <v>-0.1281809510811585</v>
       </c>
       <c r="F77">
-        <v>-0.4227261475773627</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02848099511820268</v>
+      </c>
+      <c r="G77">
+        <v>-0.7177653550521755</v>
+      </c>
+      <c r="H77">
+        <v>-0.2483686814822015</v>
+      </c>
+      <c r="I77">
+        <v>0.3988126861430288</v>
+      </c>
+      <c r="J77">
+        <v>-0.05639688421709711</v>
+      </c>
+      <c r="K77">
+        <v>-0.02321681784575597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1276721097605601</v>
+        <v>0.1648175771710028</v>
       </c>
       <c r="C78">
-        <v>-0.07239992387243056</v>
+        <v>0.07743653071234878</v>
       </c>
       <c r="D78">
-        <v>0.04140908595962329</v>
+        <v>0.01316439266233368</v>
       </c>
       <c r="E78">
-        <v>-0.007599151229488226</v>
+        <v>-0.08431624347302839</v>
       </c>
       <c r="F78">
-        <v>-0.08821000751011263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1476609413772086</v>
+      </c>
+      <c r="G78">
+        <v>-0.03048815990441571</v>
+      </c>
+      <c r="H78">
+        <v>-0.08719766066753798</v>
+      </c>
+      <c r="I78">
+        <v>-0.02627005858782619</v>
+      </c>
+      <c r="J78">
+        <v>0.02307070119356724</v>
+      </c>
+      <c r="K78">
+        <v>-0.122838372940559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1494705760424152</v>
+        <v>0.1437196106383889</v>
       </c>
       <c r="C79">
-        <v>-0.01832448712913974</v>
+        <v>0.04301507260832138</v>
       </c>
       <c r="D79">
-        <v>0.06541133329736978</v>
+        <v>-0.04551952359218037</v>
       </c>
       <c r="E79">
-        <v>-0.002095279391284006</v>
+        <v>0.008671953941817438</v>
       </c>
       <c r="F79">
-        <v>0.04711795129662064</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01072279992995655</v>
+      </c>
+      <c r="G79">
+        <v>-0.02196390601986755</v>
+      </c>
+      <c r="H79">
+        <v>0.1859671003121681</v>
+      </c>
+      <c r="I79">
+        <v>0.06117381820581883</v>
+      </c>
+      <c r="J79">
+        <v>0.07267926085416616</v>
+      </c>
+      <c r="K79">
+        <v>-0.02379308093793073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03889758493216869</v>
+        <v>0.04366072038083061</v>
       </c>
       <c r="C80">
-        <v>-0.02087839158111999</v>
+        <v>0.01007035519789827</v>
       </c>
       <c r="D80">
-        <v>0.01509031126890449</v>
+        <v>-0.04937149687746595</v>
       </c>
       <c r="E80">
-        <v>-0.005579149500959984</v>
+        <v>0.01217082393571862</v>
       </c>
       <c r="F80">
-        <v>-0.0002926153214572466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02782026560896876</v>
+      </c>
+      <c r="G80">
+        <v>0.002974214526247889</v>
+      </c>
+      <c r="H80">
+        <v>-0.03278583392959649</v>
+      </c>
+      <c r="I80">
+        <v>-0.07654389289762266</v>
+      </c>
+      <c r="J80">
+        <v>-0.03748859117998537</v>
+      </c>
+      <c r="K80">
+        <v>0.02047999883666256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1353930284920148</v>
+        <v>0.1320631700196902</v>
       </c>
       <c r="C81">
-        <v>0.002076885546989476</v>
+        <v>0.01858875704679782</v>
       </c>
       <c r="D81">
-        <v>0.05508871508698136</v>
+        <v>-0.03755844284705345</v>
       </c>
       <c r="E81">
-        <v>-0.03078290777343938</v>
+        <v>0.008006812474256783</v>
       </c>
       <c r="F81">
-        <v>0.03814489811005182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01154951100359234</v>
+      </c>
+      <c r="G81">
+        <v>0.008645602984543418</v>
+      </c>
+      <c r="H81">
+        <v>0.1463811532755818</v>
+      </c>
+      <c r="I81">
+        <v>0.02897905427216992</v>
+      </c>
+      <c r="J81">
+        <v>-0.02563270943532414</v>
+      </c>
+      <c r="K81">
+        <v>0.02077311387542069</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1237805021364831</v>
+        <v>0.1268229154381943</v>
       </c>
       <c r="C82">
-        <v>-0.01842478142217285</v>
+        <v>0.02986364632179013</v>
       </c>
       <c r="D82">
-        <v>0.03900602610747886</v>
+        <v>-0.0430792388575702</v>
       </c>
       <c r="E82">
-        <v>-0.03875413441425052</v>
+        <v>0.008128534218835942</v>
       </c>
       <c r="F82">
-        <v>0.04638365887984976</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01251881929497882</v>
+      </c>
+      <c r="G82">
+        <v>0.0214722424000093</v>
+      </c>
+      <c r="H82">
+        <v>0.2769492368084474</v>
+      </c>
+      <c r="I82">
+        <v>0.06458661767074346</v>
+      </c>
+      <c r="J82">
+        <v>-0.001235007377298365</v>
+      </c>
+      <c r="K82">
+        <v>0.01947430835019038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05468418092657958</v>
+        <v>0.07644732698038718</v>
       </c>
       <c r="C83">
-        <v>-0.0186940413806654</v>
+        <v>0.03467569566776215</v>
       </c>
       <c r="D83">
-        <v>-0.07173498341251289</v>
+        <v>0.02303060885182587</v>
       </c>
       <c r="E83">
-        <v>-0.02059707658550611</v>
+        <v>-0.02838149781554708</v>
       </c>
       <c r="F83">
-        <v>0.09557521234713276</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.08702499236815631</v>
+      </c>
+      <c r="G83">
+        <v>0.03224597156494732</v>
+      </c>
+      <c r="H83">
+        <v>-0.04715329852489171</v>
+      </c>
+      <c r="I83">
+        <v>-0.07784468265641879</v>
+      </c>
+      <c r="J83">
+        <v>-0.0455359940962949</v>
+      </c>
+      <c r="K83">
+        <v>0.04368497624865971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05187985691406352</v>
+        <v>0.03389255258031759</v>
       </c>
       <c r="C84">
-        <v>-0.01488195772126924</v>
+        <v>0.045525231909049</v>
       </c>
       <c r="D84">
-        <v>0.04644519248818926</v>
+        <v>0.006846072274016994</v>
       </c>
       <c r="E84">
-        <v>0.03127728218031388</v>
+        <v>0.04165522943214749</v>
       </c>
       <c r="F84">
-        <v>0.01882309542146392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05429036950274578</v>
+      </c>
+      <c r="G84">
+        <v>0.04267483437626849</v>
+      </c>
+      <c r="H84">
+        <v>0.0199047019970586</v>
+      </c>
+      <c r="I84">
+        <v>-0.1141358352245969</v>
+      </c>
+      <c r="J84">
+        <v>-0.04034607036337485</v>
+      </c>
+      <c r="K84">
+        <v>0.111677673125986</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1113659925644327</v>
+        <v>0.1193895462638615</v>
       </c>
       <c r="C85">
-        <v>-0.03322250559844533</v>
+        <v>0.03724887668510374</v>
       </c>
       <c r="D85">
-        <v>0.03145147942588526</v>
+        <v>-0.03506682967166874</v>
       </c>
       <c r="E85">
-        <v>-0.0603443045361902</v>
+        <v>-0.03387539393955605</v>
       </c>
       <c r="F85">
-        <v>-0.01333166987071733</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.009064250807241487</v>
+      </c>
+      <c r="G85">
+        <v>-0.01529838273524572</v>
+      </c>
+      <c r="H85">
+        <v>0.1938408035675085</v>
+      </c>
+      <c r="I85">
+        <v>0.02856008874035054</v>
+      </c>
+      <c r="J85">
+        <v>0.06750774133207391</v>
+      </c>
+      <c r="K85">
+        <v>-0.03074523188301158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07834072144219975</v>
+        <v>0.07096997767787955</v>
       </c>
       <c r="C86">
-        <v>-0.06802530250205878</v>
+        <v>0.03447684578724567</v>
       </c>
       <c r="D86">
-        <v>0.02855193228291598</v>
+        <v>0.008831319265456878</v>
       </c>
       <c r="E86">
-        <v>-0.008124577637629299</v>
+        <v>-0.01752652869634786</v>
       </c>
       <c r="F86">
-        <v>-0.03318001465727201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03426214634425572</v>
+      </c>
+      <c r="G86">
+        <v>0.00327183988659052</v>
+      </c>
+      <c r="H86">
+        <v>-0.02704475403066778</v>
+      </c>
+      <c r="I86">
+        <v>0.007013551873452075</v>
+      </c>
+      <c r="J86">
+        <v>0.01575468934035351</v>
+      </c>
+      <c r="K86">
+        <v>0.04176462336416745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1288471357034438</v>
+        <v>0.1278896256583896</v>
       </c>
       <c r="C87">
-        <v>-0.0639834393635432</v>
+        <v>0.07206371621081975</v>
       </c>
       <c r="D87">
-        <v>0.06081473420274586</v>
+        <v>-0.002866449265949452</v>
       </c>
       <c r="E87">
-        <v>-0.03574368403565083</v>
+        <v>-0.02136379399251281</v>
       </c>
       <c r="F87">
-        <v>-0.1901324944094833</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1036398121348554</v>
+      </c>
+      <c r="G87">
+        <v>-0.1972761797174534</v>
+      </c>
+      <c r="H87">
+        <v>-0.09323660771848769</v>
+      </c>
+      <c r="I87">
+        <v>0.04119069653763053</v>
+      </c>
+      <c r="J87">
+        <v>-0.02527386682143418</v>
+      </c>
+      <c r="K87">
+        <v>0.04803756045652914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05816113732527575</v>
+        <v>0.06496983695560192</v>
       </c>
       <c r="C88">
-        <v>-0.02296782387606935</v>
+        <v>0.03815192369420072</v>
       </c>
       <c r="D88">
-        <v>0.02320618184833432</v>
+        <v>-0.03661396958896225</v>
       </c>
       <c r="E88">
-        <v>-0.00865443181951189</v>
+        <v>-0.004450102137582424</v>
       </c>
       <c r="F88">
-        <v>-0.003274712534390234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.001305259651449321</v>
+      </c>
+      <c r="G88">
+        <v>-0.01419567407712251</v>
+      </c>
+      <c r="H88">
+        <v>0.01912524602334022</v>
+      </c>
+      <c r="I88">
+        <v>-0.03355943071673525</v>
+      </c>
+      <c r="J88">
+        <v>-0.03761470174014696</v>
+      </c>
+      <c r="K88">
+        <v>0.0253904420821941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.08267988210303048</v>
+        <v>0.1507459221780124</v>
       </c>
       <c r="C89">
-        <v>0.3238334791303357</v>
+        <v>-0.3745556436692298</v>
       </c>
       <c r="D89">
-        <v>-0.02855069791197247</v>
+        <v>0.005530492839199563</v>
       </c>
       <c r="E89">
-        <v>-0.1116368286417151</v>
+        <v>-0.08880039605717845</v>
       </c>
       <c r="F89">
-        <v>-0.04343996109820485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01552479243258396</v>
+      </c>
+      <c r="G89">
+        <v>0.03941799293097157</v>
+      </c>
+      <c r="H89">
+        <v>-0.01308334166161863</v>
+      </c>
+      <c r="I89">
+        <v>-0.05197870775235078</v>
+      </c>
+      <c r="J89">
+        <v>-0.08790044628603104</v>
+      </c>
+      <c r="K89">
+        <v>-0.009142605659674615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06765629615183519</v>
+        <v>0.1043418284316409</v>
       </c>
       <c r="C90">
-        <v>0.2882509230648749</v>
+        <v>-0.2806362632489941</v>
       </c>
       <c r="D90">
-        <v>-0.05330002069030829</v>
+        <v>0.0312231757561818</v>
       </c>
       <c r="E90">
-        <v>-0.0541654401760911</v>
+        <v>-0.0414737825203703</v>
       </c>
       <c r="F90">
-        <v>-0.06446454617422023</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.002487313207030614</v>
+      </c>
+      <c r="G90">
+        <v>-0.02926322878607798</v>
+      </c>
+      <c r="H90">
+        <v>-0.03273815870027462</v>
+      </c>
+      <c r="I90">
+        <v>-0.0539187872815205</v>
+      </c>
+      <c r="J90">
+        <v>-0.06401317149164873</v>
+      </c>
+      <c r="K90">
+        <v>-0.007375205190108832</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1024742201311147</v>
+        <v>0.08800620909105628</v>
       </c>
       <c r="C91">
-        <v>-0.01039433728747565</v>
+        <v>0.03755494597046452</v>
       </c>
       <c r="D91">
-        <v>0.03290364348163867</v>
+        <v>-0.008700705327355444</v>
       </c>
       <c r="E91">
-        <v>-0.01428661347240831</v>
+        <v>0.002743015564799615</v>
       </c>
       <c r="F91">
-        <v>0.01167815245120984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.005681572949261107</v>
+      </c>
+      <c r="G91">
+        <v>0.03246290489218254</v>
+      </c>
+      <c r="H91">
+        <v>0.08380596204567139</v>
+      </c>
+      <c r="I91">
+        <v>0.02364939588545728</v>
+      </c>
+      <c r="J91">
+        <v>0.02287104105075157</v>
+      </c>
+      <c r="K91">
+        <v>-0.02020139326928206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.05364121497281859</v>
+        <v>0.1073742217124212</v>
       </c>
       <c r="C92">
-        <v>0.334406324747464</v>
+        <v>-0.337198993215288</v>
       </c>
       <c r="D92">
-        <v>-0.007184518377414741</v>
+        <v>0.005514225624693855</v>
       </c>
       <c r="E92">
-        <v>-0.09048760807660258</v>
+        <v>-0.04964096004960517</v>
       </c>
       <c r="F92">
-        <v>-0.01324876256476091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03573575814648408</v>
+      </c>
+      <c r="G92">
+        <v>0.0219077327151015</v>
+      </c>
+      <c r="H92">
+        <v>0.0221808894215273</v>
+      </c>
+      <c r="I92">
+        <v>-0.01994857927716847</v>
+      </c>
+      <c r="J92">
+        <v>-0.02810182206285863</v>
+      </c>
+      <c r="K92">
+        <v>0.004160193874187272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.05272923520830049</v>
+        <v>0.1088535896382189</v>
       </c>
       <c r="C93">
-        <v>0.2925901863683995</v>
+        <v>-0.3105447408270244</v>
       </c>
       <c r="D93">
-        <v>-0.02127617094172307</v>
+        <v>0.0007796130739605575</v>
       </c>
       <c r="E93">
-        <v>-0.05277067393481285</v>
+        <v>-0.02325743272380159</v>
       </c>
       <c r="F93">
-        <v>-0.03525627330757435</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.004297854744849524</v>
+      </c>
+      <c r="G93">
+        <v>0.001462881351888062</v>
+      </c>
+      <c r="H93">
+        <v>-0.0149353961973823</v>
+      </c>
+      <c r="I93">
+        <v>-0.001690275686410404</v>
+      </c>
+      <c r="J93">
+        <v>0.004328510660428113</v>
+      </c>
+      <c r="K93">
+        <v>0.03220831938471425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1272273244289241</v>
+        <v>0.1200285270835357</v>
       </c>
       <c r="C94">
-        <v>-0.05634608108381134</v>
+        <v>0.06073046455913124</v>
       </c>
       <c r="D94">
-        <v>0.03194866979358429</v>
+        <v>-0.009969941026772827</v>
       </c>
       <c r="E94">
-        <v>-0.03353450531849722</v>
+        <v>-0.02524148049519289</v>
       </c>
       <c r="F94">
-        <v>0.02052084472846881</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.004188463620515836</v>
+      </c>
+      <c r="G94">
+        <v>0.06574320418536957</v>
+      </c>
+      <c r="H94">
+        <v>0.1206419370467609</v>
+      </c>
+      <c r="I94">
+        <v>0.01718398690960932</v>
+      </c>
+      <c r="J94">
+        <v>0.02297671418255735</v>
+      </c>
+      <c r="K94">
+        <v>-0.02027660231171246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1214914098647906</v>
+        <v>0.1344547439058982</v>
       </c>
       <c r="C95">
-        <v>-0.0747408415369343</v>
+        <v>0.06691105374351976</v>
       </c>
       <c r="D95">
-        <v>0.06659602797222812</v>
+        <v>-0.03750214772489001</v>
       </c>
       <c r="E95">
-        <v>-0.06644840792793669</v>
+        <v>-0.03846397478258841</v>
       </c>
       <c r="F95">
-        <v>0.03826954347356774</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.05020718087315006</v>
+      </c>
+      <c r="G95">
+        <v>-0.03843294887760838</v>
+      </c>
+      <c r="H95">
+        <v>-0.1408546204911107</v>
+      </c>
+      <c r="I95">
+        <v>-0.06665241712164907</v>
+      </c>
+      <c r="J95">
+        <v>0.03368743514669414</v>
+      </c>
+      <c r="K95">
+        <v>-0.003635435825102978</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.248028696494341</v>
+        <v>0.1868708327318404</v>
       </c>
       <c r="C97">
-        <v>0.1511776424268414</v>
+        <v>-0.03946102400996028</v>
       </c>
       <c r="D97">
-        <v>0.0128760041578826</v>
+        <v>0.3210980516286153</v>
       </c>
       <c r="E97">
-        <v>0.8909626916265974</v>
+        <v>0.8808452764790964</v>
       </c>
       <c r="F97">
-        <v>-0.008867089037760191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.04640130215847988</v>
+      </c>
+      <c r="G97">
+        <v>-0.04049801326900741</v>
+      </c>
+      <c r="H97">
+        <v>-0.06074228021861489</v>
+      </c>
+      <c r="I97">
+        <v>-0.03708273019274801</v>
+      </c>
+      <c r="J97">
+        <v>-0.08048771150840532</v>
+      </c>
+      <c r="K97">
+        <v>-0.04476280549252255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.289373004988998</v>
+        <v>0.2847412368161513</v>
       </c>
       <c r="C98">
-        <v>-0.04648887719816663</v>
+        <v>0.09900608703386103</v>
       </c>
       <c r="D98">
-        <v>-0.009508940070356527</v>
+        <v>-0.102144611231395</v>
       </c>
       <c r="E98">
-        <v>-0.08450593484113819</v>
+        <v>0.05071700581158708</v>
       </c>
       <c r="F98">
-        <v>0.5610601157959382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2916142066754459</v>
+      </c>
+      <c r="G98">
+        <v>0.2828839809096765</v>
+      </c>
+      <c r="H98">
+        <v>-0.2970956151043845</v>
+      </c>
+      <c r="I98">
+        <v>0.206845584037406</v>
+      </c>
+      <c r="J98">
+        <v>0.1122819922657466</v>
+      </c>
+      <c r="K98">
+        <v>0.6249981185227153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2416271916397754</v>
+        <v>0.1516912500523917</v>
       </c>
       <c r="C99">
-        <v>-0.1138828268982419</v>
+        <v>0.08849265800961748</v>
       </c>
       <c r="D99">
-        <v>-0.9098504175148755</v>
+        <v>0.6428637872083951</v>
       </c>
       <c r="E99">
-        <v>-0.01572920647379515</v>
+        <v>-0.2313793179979671</v>
       </c>
       <c r="F99">
-        <v>0.09394504372886599</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6008114814328021</v>
+      </c>
+      <c r="G99">
+        <v>-0.03959896052301463</v>
+      </c>
+      <c r="H99">
+        <v>0.1464378740744879</v>
+      </c>
+      <c r="I99">
+        <v>-0.07979054897475582</v>
+      </c>
+      <c r="J99">
+        <v>0.06958432177563686</v>
+      </c>
+      <c r="K99">
+        <v>-0.05727247375013739</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4197,60 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05709510305538868</v>
+        <v>0.05420791060951655</v>
       </c>
       <c r="C101">
-        <v>0.002151869805142018</v>
+        <v>0.01035761246418738</v>
       </c>
       <c r="D101">
-        <v>0.03158681835371463</v>
+        <v>-0.02175297573479837</v>
       </c>
       <c r="E101">
-        <v>-0.0245938740831582</v>
+        <v>-0.02179678168976452</v>
       </c>
       <c r="F101">
-        <v>-0.03395578384531085</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03587392814456969</v>
+      </c>
+      <c r="G101">
+        <v>-0.02440824995523911</v>
+      </c>
+      <c r="H101">
+        <v>0.06135124001041235</v>
+      </c>
+      <c r="I101">
+        <v>-0.0386828415656446</v>
+      </c>
+      <c r="J101">
+        <v>0.004287870275441391</v>
+      </c>
+      <c r="K101">
+        <v>0.0355361127904642</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4267,25 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
